--- a/public/download/student.xlsx
+++ b/public/download/student.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>532628198905224879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,11 +451,11 @@
     <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +477,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -496,8 +503,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -519,8 +529,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -541,6 +554,9 @@
       </c>
       <c r="G4" t="s">
         <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/student.xlsx
+++ b/public/download/student.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +103,18 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准考证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,30 +436,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +485,11 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -506,8 +514,11 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2">
+        <v>1111111111</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -532,8 +543,11 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3">
+        <v>1111111122</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -557,6 +571,9 @@
       </c>
       <c r="H4" t="s">
         <v>9</v>
+      </c>
+      <c r="I4">
+        <v>1112341231</v>
       </c>
     </row>
   </sheetData>
@@ -572,14 +589,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/download/student.xlsx
+++ b/public/download/student.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -113,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,10 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -224,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -259,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,23 +437,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
@@ -460,7 +461,7 @@
     <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +471,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -489,7 +490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -499,7 +500,7 @@
       <c r="C2">
         <v>25874</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E2">
@@ -518,7 +519,7 @@
         <v>1111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -528,7 +529,7 @@
       <c r="C3">
         <v>25542</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3">
@@ -547,7 +548,7 @@
         <v>1111111122</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -557,7 +558,7 @@
       <c r="C4">
         <v>25365</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4">
@@ -589,12 +590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/download/student.xlsx
+++ b/public/download/student.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,42 @@
   </si>
   <si>
     <t>准考证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87412X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻科一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠科一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻科二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,10 +494,10 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +525,14 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -515,11 +557,17 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>1111111111</v>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -545,10 +593,16 @@
         <v>8</v>
       </c>
       <c r="I3">
-        <v>1111111122</v>
+        <v>542662</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -574,7 +628,13 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>1112341231</v>
+        <v>365879</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -599,6 +659,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/download/student.xlsx
+++ b/public/download/student.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\network\osce\public\download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>姓名</t>
   </si>
@@ -161,14 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,337 +207,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -546,318 +236,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1118,15 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
@@ -1138,7 +550,7 @@
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1">
         <v>1126</v>
@@ -1214,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1252,7 +664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1325,10 +737,10 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1366,27 +778,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>6781</v>
+        <v>6782</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>15780030155</v>
+        <v>15182180401</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -1395,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -1404,27 +816,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>6782</v>
+        <v>6783</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>15182180401</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>15182180402</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1433,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -1442,90 +854,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>6783</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>15182180402</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="8">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>1128</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G9" s="6"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="7:9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G11" s="6"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="7:9">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G12" s="6"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="7:9">
-      <c r="G13" s="6"/>
-      <c r="I13" s="8"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="1216277@163.com"/>
-    <hyperlink ref="G4" r:id="rId1" display="1216277@163.com"/>
-    <hyperlink ref="G5" r:id="rId1" display="1216277@172.com"/>
-    <hyperlink ref="G6" r:id="rId1" display="1216277@173.com"/>
-    <hyperlink ref="G7" r:id="rId1" display="1216277@174.com"/>
-    <hyperlink ref="G8" r:id="rId1" display="1216277@175.com"/>
-    <hyperlink ref="G9" r:id="rId1" display="1216277@176.com"/>
-    <hyperlink ref="G2" r:id="rId1" display="1216277@174.com"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>